--- a/WIP/Systemtest/APH.TC.Hopdong_v01.xlsx
+++ b/WIP/Systemtest/APH.TC.Hopdong_v01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="145">
   <si>
     <t>THÔNG TIN VỀ TESTCASE</t>
   </si>
@@ -621,6 +621,22 @@
   </si>
   <si>
     <t>Hệ thống hiển thị thông báo "Sửa hợp đồng thành công"</t>
+  </si>
+  <si>
+    <t>B1: Vào form "Thêm mới hợp đồng"
+B2: Thêm mới 1 hợp đồng đã có trong hệ thống
+B3: Nhấn btn "Chấp nhận"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Hợp đồng đã tồn tại trong hệ thống"</t>
+  </si>
+  <si>
+    <t>B1: Vào form "Thêm mới hợp đồng"
+B2: Nhập trường số hợp đồng đã tồn tại trong hệ thống
+B3: Nhấn btn "Chấp nhận"</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo "Số hợp đồng đã tồn tại trong hệ thống"</t>
   </si>
 </sst>
 </file>
@@ -905,7 +921,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,44 +1015,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1341,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1368,53 +1387,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" outlineLevel="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:15" outlineLevel="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:15" outlineLevel="1">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:15" outlineLevel="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:15" outlineLevel="1">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIF(H1:H199,"P")</f>
+        <f>COUNTIF(H1:H201,"P")</f>
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6">
-        <f>COUNTIF(H1:H199,"U")</f>
-        <v>53</v>
+        <f>COUNTIF(H1:H201,"U")</f>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" outlineLevel="1">
@@ -1422,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <f>COUNTIF(H1:H199,"F")</f>
+        <f>COUNTIF(H1:H201,"F")</f>
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1430,7 +1449,7 @@
       </c>
       <c r="E6" s="6">
         <f>E5+C6+C5</f>
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1"/>
@@ -1453,100 +1472,100 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8"/>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="41" t="s">
+      <c r="M9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="40" t="s">
         <v>20</v>
       </c>
       <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:15" s="19" customFormat="1" ht="409.5">
@@ -1602,7 +1621,7 @@
     <row r="15" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A15" s="8"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="46" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1627,7 +1646,7 @@
     <row r="16" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A16" s="8"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="36"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="16" t="s">
         <v>59</v>
       </c>
@@ -1874,40 +1893,40 @@
     </row>
     <row r="26" spans="1:15" ht="14.25" customHeight="1">
       <c r="A26" s="8"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
       <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" s="29" customFormat="1">
       <c r="A27" s="27"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:15" s="19" customFormat="1" ht="173.25">
@@ -2038,21 +2057,21 @@
     </row>
     <row r="34" spans="1:15" s="29" customFormat="1">
       <c r="A34" s="27"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
       <c r="O34" s="28"/>
     </row>
     <row r="35" spans="1:15" s="19" customFormat="1" ht="47.25">
@@ -2183,13 +2202,13 @@
     <row r="40" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A40" s="8"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="30"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="16" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="E40" s="16"/>
       <c r="F40" s="16" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="17" t="s">
@@ -2203,18 +2222,16 @@
       <c r="N40" s="15"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:15" s="19" customFormat="1" ht="141.75">
+    <row r="41" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A41" s="8"/>
       <c r="B41" s="14"/>
       <c r="C41" s="30"/>
       <c r="D41" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>93</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="17" t="s">
@@ -2228,106 +2245,104 @@
       <c r="N41" s="15"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A42" s="8"/>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="14"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" s="19" customFormat="1" ht="141.75">
+      <c r="A43" s="8"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="8"/>
+      <c r="B44" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="13"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="37" t="s">
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A45" s="8"/>
+      <c r="B45" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="13"/>
-    </row>
-    <row r="44" spans="1:15" s="19" customFormat="1" ht="409.5">
-      <c r="A44" s="8"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="13"/>
-    </row>
-    <row r="45" spans="1:15" s="19" customFormat="1" ht="78.75">
-      <c r="A45" s="8"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="15"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
       <c r="O45" s="13"/>
     </row>
-    <row r="46" spans="1:15" s="19" customFormat="1" ht="78.75">
+    <row r="46" spans="1:15" s="19" customFormat="1" ht="409.5">
       <c r="A46" s="8"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="35" t="s">
-        <v>24</v>
+      <c r="C46" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="16" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="17" t="s">
@@ -2341,16 +2356,18 @@
       <c r="N46" s="15"/>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:15" s="19" customFormat="1" ht="94.5">
+    <row r="47" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A47" s="8"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="36"/>
+      <c r="C47" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="D47" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="17" t="s">
@@ -2366,70 +2383,66 @@
     </row>
     <row r="48" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A48" s="8"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22" t="s">
-        <v>26</v>
+      <c r="B48" s="14"/>
+      <c r="C48" s="46" t="s">
+        <v>24</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="24"/>
+        <v>106</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="16"/>
       <c r="H48" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="23"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="1:15" s="19" customFormat="1" ht="63">
+    <row r="49" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A49" s="8"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="24"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="16"/>
       <c r="H49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="23"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="13"/>
     </row>
-    <row r="50" spans="1:15" s="19" customFormat="1" ht="63">
+    <row r="50" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A50" s="8"/>
       <c r="B50" s="21"/>
       <c r="C50" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>110</v>
+        <v>26</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="G50" s="24"/>
       <c r="H50" s="17" t="s">
@@ -2443,20 +2456,18 @@
       <c r="N50" s="23"/>
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="1:15" s="19" customFormat="1" ht="94.5">
+    <row r="51" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A51" s="8"/>
       <c r="B51" s="21"/>
       <c r="C51" s="22" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>64</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E51" s="23"/>
       <c r="F51" s="24" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="G51" s="24"/>
       <c r="H51" s="17" t="s">
@@ -2470,16 +2481,20 @@
       <c r="N51" s="23"/>
       <c r="O51" s="13"/>
     </row>
-    <row r="52" spans="1:15" s="19" customFormat="1" ht="94.5">
+    <row r="52" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A52" s="8"/>
       <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
+      <c r="C52" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="D52" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="24"/>
+        <v>110</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>83</v>
+      </c>
       <c r="F52" s="24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G52" s="24"/>
       <c r="H52" s="17" t="s">
@@ -2496,13 +2511,17 @@
     <row r="53" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A53" s="8"/>
       <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
+      <c r="C53" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="D53" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="24"/>
+        <v>111</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="F53" s="24" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="17" t="s">
@@ -2519,15 +2538,13 @@
     <row r="54" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A54" s="8"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="C54" s="22"/>
       <c r="D54" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G54" s="24"/>
       <c r="H54" s="17" t="s">
@@ -2541,16 +2558,16 @@
       <c r="N54" s="23"/>
       <c r="O54" s="13"/>
     </row>
-    <row r="55" spans="1:15" s="19" customFormat="1" ht="78.75">
+    <row r="55" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A55" s="8"/>
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
       <c r="D55" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="G55" s="24"/>
       <c r="H55" s="17" t="s">
@@ -2564,18 +2581,18 @@
       <c r="N55" s="23"/>
       <c r="O55" s="13"/>
     </row>
-    <row r="56" spans="1:15" s="19" customFormat="1" ht="63">
+    <row r="56" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A56" s="8"/>
       <c r="B56" s="21"/>
       <c r="C56" s="22" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="E56" s="24"/>
       <c r="F56" s="24" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="17" t="s">
@@ -2589,140 +2606,142 @@
       <c r="N56" s="23"/>
       <c r="O56" s="13"/>
     </row>
-    <row r="57" spans="1:15" ht="14.25" customHeight="1">
+    <row r="57" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A57" s="8"/>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="13"/>
+    </row>
+    <row r="58" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A58" s="8"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="13"/>
+    </row>
+    <row r="59" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A59" s="8"/>
+      <c r="B59" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="13"/>
-    </row>
-    <row r="58" spans="1:15" s="29" customFormat="1">
-      <c r="A58" s="27"/>
-      <c r="B58" s="38" t="s">
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="13"/>
+    </row>
+    <row r="60" spans="1:15" s="29" customFormat="1">
+      <c r="A60" s="27"/>
+      <c r="B60" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="28"/>
-    </row>
-    <row r="59" spans="1:15" s="19" customFormat="1" ht="189">
-      <c r="A59" s="8"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" s="19" customFormat="1" ht="189">
+      <c r="A61" s="8"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D61" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F61" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G61" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="13"/>
-    </row>
-    <row r="60" spans="1:15" s="19" customFormat="1" ht="63">
-      <c r="A60" s="8"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="16" t="s">
+      <c r="H61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="13"/>
+    </row>
+    <row r="62" spans="1:15" s="19" customFormat="1" ht="63">
+      <c r="A62" s="8"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
+      <c r="E62" s="16"/>
+      <c r="F62" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="13"/>
-    </row>
-    <row r="61" spans="1:15" s="19" customFormat="1" ht="78.75">
-      <c r="A61" s="8"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="13"/>
-    </row>
-    <row r="62" spans="1:15" s="19" customFormat="1" ht="78.75">
-      <c r="A62" s="8"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" s="23"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="23"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="15"/>
       <c r="O62" s="13"/>
     </row>
     <row r="63" spans="1:15" s="19" customFormat="1" ht="78.75">
@@ -2730,11 +2749,11 @@
       <c r="B63" s="21"/>
       <c r="C63" s="26"/>
       <c r="D63" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="17" t="s">
@@ -2748,16 +2767,16 @@
       <c r="N63" s="23"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15" s="19" customFormat="1" ht="126">
+    <row r="64" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A64" s="8"/>
       <c r="B64" s="21"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="24" t="s">
-        <v>135</v>
+      <c r="C64" s="26"/>
+      <c r="D64" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="17" t="s">
@@ -2771,16 +2790,16 @@
       <c r="N64" s="23"/>
       <c r="O64" s="13"/>
     </row>
-    <row r="65" spans="1:15" s="19" customFormat="1" ht="126">
+    <row r="65" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A65" s="8"/>
       <c r="B65" s="21"/>
       <c r="C65" s="26"/>
-      <c r="D65" s="24" t="s">
-        <v>137</v>
+      <c r="D65" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="17" t="s">
@@ -2794,16 +2813,16 @@
       <c r="N65" s="23"/>
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="1:15" s="19" customFormat="1" ht="63">
+    <row r="66" spans="1:15" s="19" customFormat="1" ht="126">
       <c r="A66" s="8"/>
       <c r="B66" s="21"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="24" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="17" t="s">
@@ -2817,89 +2836,85 @@
       <c r="N66" s="23"/>
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="1:15" s="29" customFormat="1">
-      <c r="A67" s="27"/>
-      <c r="B67" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="28"/>
+    <row r="67" spans="1:15" s="19" customFormat="1" ht="126">
+      <c r="A67" s="8"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="13"/>
     </row>
     <row r="68" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A68" s="8"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G68" s="15"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G68" s="23"/>
       <c r="H68" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="15"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="23"/>
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="1:15" s="19" customFormat="1" ht="78.75">
-      <c r="A69" s="8"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="13"/>
-    </row>
-    <row r="70" spans="1:15" s="19" customFormat="1" ht="78.75">
+    <row r="69" spans="1:15" s="29" customFormat="1">
+      <c r="A69" s="27"/>
+      <c r="B69" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="28"/>
+    </row>
+    <row r="70" spans="1:15" s="19" customFormat="1" ht="63">
       <c r="A70" s="8"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="30"/>
+      <c r="C70" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="D70" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="17" t="s">
@@ -2916,13 +2931,15 @@
     <row r="71" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A71" s="8"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="30"/>
+      <c r="C71" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="D71" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="17" t="s">
@@ -2936,20 +2953,20 @@
       <c r="N71" s="15"/>
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="1:15" s="19" customFormat="1" ht="94.5">
+    <row r="72" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A72" s="8"/>
       <c r="B72" s="14"/>
       <c r="C72" s="30"/>
       <c r="D72" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="16"/>
+        <v>101</v>
+      </c>
+      <c r="G72" s="15"/>
       <c r="H72" s="17" t="s">
         <v>21</v>
       </c>
@@ -2966,13 +2983,13 @@
       <c r="B73" s="14"/>
       <c r="C73" s="30"/>
       <c r="D73" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="G73" s="15"/>
       <c r="H73" s="17" t="s">
         <v>21</v>
       </c>
@@ -2984,18 +3001,18 @@
       <c r="N73" s="15"/>
       <c r="O73" s="13"/>
     </row>
-    <row r="74" spans="1:15" s="19" customFormat="1" ht="141.75">
+    <row r="74" spans="1:15" s="19" customFormat="1" ht="94.5">
       <c r="A74" s="8"/>
       <c r="B74" s="14"/>
       <c r="C74" s="30"/>
       <c r="D74" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="G74" s="16"/>
       <c r="H74" s="17" t="s">
@@ -3009,89 +3026,130 @@
       <c r="N74" s="15"/>
       <c r="O74" s="13"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" s="19" customFormat="1" ht="78.75">
       <c r="A75" s="8"/>
-      <c r="B75" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="16"/>
+      <c r="H75" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="15"/>
       <c r="O75" s="13"/>
     </row>
-    <row r="76" spans="1:15" s="19" customFormat="1">
+    <row r="76" spans="1:15" s="19" customFormat="1" ht="141.75">
       <c r="A76" s="8"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="14"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="18"/>
       <c r="N76" s="15"/>
       <c r="O76" s="13"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="33"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="19"/>
-      <c r="O78" s="19"/>
+    <row r="78" spans="1:15" s="19" customFormat="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="13"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="O79" s="19"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="13"/>
     </row>
     <row r="80" spans="1:15">
+      <c r="A80" s="19"/>
       <c r="O80" s="19"/>
     </row>
     <row r="81" spans="15:15">
       <c r="O81" s="19"/>
     </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="19"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B59:N59"/>
+    <mergeCell ref="B60:N60"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B77:N77"/>
     <mergeCell ref="B34:N34"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="B45:N45"/>
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="B11:N11"/>
     <mergeCell ref="B12:N12"/>
@@ -3105,11 +3163,18 @@
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B57:N57"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B75:N75"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
